--- a/LatexResults.xlsx
+++ b/LatexResults.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hongzhang\Documents\GitHub\MAPRobust\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386BF678-7A27-4F9B-8103-04F6F4AD95C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7AD667-08D0-401B-92A0-DBF49C977BB0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="2" xr2:uid="{043C8F5B-22FD-4393-9004-68059148342F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="4" xr2:uid="{043C8F5B-22FD-4393-9004-68059148342F}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="Normal_-20" sheetId="2" r:id="rId2"/>
     <sheet name="Normal_0" sheetId="3" r:id="rId3"/>
+    <sheet name="Binary_0.2" sheetId="6" r:id="rId4"/>
+    <sheet name="Binary_0" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="10">
   <si>
     <t>rMAP</t>
   </si>
@@ -60,6 +62,9 @@
   </si>
   <si>
     <t>w_V</t>
+  </si>
+  <si>
+    <t>True p_C</t>
   </si>
 </sst>
 </file>
@@ -99,10 +104,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,50 +440,50 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>-60</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5">
         <v>-55</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5">
         <v>-50</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5">
         <v>-45</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4">
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5">
         <v>-40</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -531,7 +539,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>0.2</v>
       </c>
       <c r="B4" t="s">
@@ -584,7 +592,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -635,7 +643,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -704,7 +712,7 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>0.5</v>
       </c>
       <c r="B8" t="s">
@@ -757,7 +765,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -808,7 +816,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -877,7 +885,7 @@
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>0.8</v>
       </c>
       <c r="B12" t="s">
@@ -930,7 +938,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -981,7 +989,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
       <c r="B14" t="s">
         <v>2</v>
       </c>
@@ -1059,50 +1067,50 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>-60</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5">
         <v>-55</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5">
         <v>-50</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5">
         <v>-45</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4">
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5">
         <v>-40</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1158,7 +1166,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>0.2</v>
       </c>
       <c r="B4" t="s">
@@ -1211,7 +1219,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -1262,7 +1270,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -1331,7 +1339,7 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>0.5</v>
       </c>
       <c r="B8" t="s">
@@ -1384,7 +1392,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -1435,7 +1443,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -1504,7 +1512,7 @@
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>0.8</v>
       </c>
       <c r="B12" t="s">
@@ -1557,7 +1565,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -1608,7 +1616,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
       <c r="B14" t="s">
         <v>2</v>
       </c>
@@ -1679,57 +1687,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0FAADE-714A-4E5A-B305-0314B5A2E7CF}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>-60</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5">
         <v>-55</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5">
         <v>-50</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5">
         <v>-45</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4">
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5">
         <v>-40</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1785,7 +1793,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>0.2</v>
       </c>
       <c r="B4" t="s">
@@ -1838,7 +1846,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -1889,7 +1897,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -1943,7 +1951,7 @@
       <c r="A7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>0.5</v>
       </c>
       <c r="B8" t="s">
@@ -1996,7 +2004,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -2047,7 +2055,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -2101,7 +2109,7 @@
       <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>0.8</v>
       </c>
       <c r="B12" t="s">
@@ -2154,7 +2162,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -2205,7 +2213,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
       <c r="B14" t="s">
         <v>2</v>
       </c>
@@ -2253,6 +2261,1260 @@
       </c>
       <c r="Q14" s="2">
         <v>82.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="C1:Q1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F56842-8A04-43CF-81B1-6661C22C4469}">
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C2" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.2296</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.2379</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.8E-3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.24890000000000001</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.26050000000000001</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.27739999999999998</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.2298</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.3E-3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.249</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.27839999999999998</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.22989999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.2382</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.621</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.24940000000000001</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.26140000000000002</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.27810000000000001</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.2233</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.2339</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2.8E-3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.24909999999999999</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.26429999999999998</v>
+      </c>
+      <c r="N8" s="1">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.2888</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>5.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.22409999999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.3E-3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.23449999999999999</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2.8E-3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.26579999999999998</v>
+      </c>
+      <c r="N9" s="1">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.29139999999999999</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.502</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.2225</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.3E-3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.23350000000000001</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.26819999999999999</v>
+      </c>
+      <c r="N10" s="1">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.29430000000000001</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.21379999999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.22819999999999999</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.25040000000000001</v>
+      </c>
+      <c r="K12" s="1">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.27310000000000001</v>
+      </c>
+      <c r="N12" s="1">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.30509999999999998</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.21560000000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.2298</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.25219999999999998</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.27560000000000001</v>
+      </c>
+      <c r="N13" s="1">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.30830000000000002</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.21290000000000001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.22839999999999999</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.25340000000000001</v>
+      </c>
+      <c r="K14" s="1">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.2792</v>
+      </c>
+      <c r="N14" s="1">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.31369999999999998</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>7.9000000000000008E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="C1:Q1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76940B72-78A9-4598-9C52-515EB88AF4C8}">
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C2" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.22869999999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.3E-3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.23630000000000001</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.24759999999999999</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.25950000000000001</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2.3E-3</v>
+      </c>
+      <c r="O4" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.27589999999999998</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>4.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.23769999999999999</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.24909999999999999</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.2611</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2.3E-3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>7.8E-2</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.2777</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>4.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.2301</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.23769999999999999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.2495</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.26150000000000001</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="O6" s="1">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.27760000000000001</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.22270000000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.3E-3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.23280000000000001</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.24929999999999999</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.26340000000000002</v>
+      </c>
+      <c r="N8" s="1">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="O8" s="1">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>5.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.22439999999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.23469999999999999</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.25140000000000001</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.26590000000000003</v>
+      </c>
+      <c r="N9" s="1">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="O9" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.29010000000000002</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>5.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.2228</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.3E-3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.2346</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.2525</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.26829999999999998</v>
+      </c>
+      <c r="N10" s="1">
+        <v>3.8E-3</v>
+      </c>
+      <c r="O10" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.29310000000000003</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.21440000000000001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.22919999999999999</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.25080000000000002</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="L12" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.27110000000000001</v>
+      </c>
+      <c r="N12" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O12" s="1">
+        <v>6.2E-2</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.2167</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.23139999999999999</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.25340000000000001</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5.3E-3</v>
+      </c>
+      <c r="L13" s="1">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.27389999999999998</v>
+      </c>
+      <c r="N13" s="1">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.3054</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.21379999999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5.3E-3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.2301</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.25480000000000003</v>
+      </c>
+      <c r="K14" s="1">
+        <v>6.3E-3</v>
+      </c>
+      <c r="L14" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.27729999999999999</v>
+      </c>
+      <c r="N14" s="1">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="O14" s="1">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.31090000000000001</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>7.6E-3</v>
       </c>
     </row>
   </sheetData>

--- a/LatexResults.xlsx
+++ b/LatexResults.xlsx
@@ -1,49 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hongzhang\Documents\GitHub\MAPRobust\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\squal\Documents\GitHubProject\MAPRobust\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7AD667-08D0-401B-92A0-DBF49C977BB0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E74730C-12AB-4A82-98B3-90D63B501A12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="4" xr2:uid="{043C8F5B-22FD-4393-9004-68059148342F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
-    <sheet name="Normal_-20" sheetId="2" r:id="rId2"/>
-    <sheet name="Normal_0" sheetId="3" r:id="rId3"/>
-    <sheet name="Binary_0.2" sheetId="6" r:id="rId4"/>
-    <sheet name="Binary_0" sheetId="7" r:id="rId5"/>
+    <sheet name="Normal_-60" sheetId="2" r:id="rId2"/>
+    <sheet name="Normal_-20" sheetId="3" r:id="rId3"/>
+    <sheet name="Normal_0" sheetId="4" r:id="rId4"/>
+    <sheet name="Binary_0.2" sheetId="5" r:id="rId5"/>
+    <sheet name="Binary_0" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="14">
   <si>
-    <t>rMAP</t>
+    <t>True \mu_C</t>
   </si>
   <si>
-    <t>Alt1</t>
+    <t>w_V</t>
   </si>
   <si>
-    <t>Alt2</t>
+    <t>Method</t>
   </si>
   <si>
     <t>PoS</t>
@@ -55,16 +50,28 @@
     <t>MSE</t>
   </si>
   <si>
-    <t>Method</t>
+    <t>rMAP</t>
   </si>
   <si>
-    <t>True \mu_C</t>
+    <t>Alt1</t>
   </si>
   <si>
-    <t>w_V</t>
+    <t>Alt2</t>
   </si>
   <si>
     <t>True p_C</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -78,10 +85,10 @@
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,10 +118,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -430,18 +437,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4E6097-992C-4853-866D-6DD1E6B22C27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C1" s="5" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -458,39 +463,39 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C2" s="5">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C2" s="4">
         <v>-60</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4">
         <v>-55</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
         <v>-50</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4">
         <v>-45</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4">
         <v>-40</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -538,12 +543,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>0.2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>0.23300000000000001</v>
@@ -591,10 +596,10 @@
         <v>102.2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>0.40500000000000003</v>
@@ -642,10 +647,10 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>0.4</v>
@@ -693,7 +698,7 @@
         <v>75.3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
@@ -711,12 +716,12 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>0.5</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>0.19400000000000001</v>
@@ -764,10 +769,10 @@
         <v>126.1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <v>0.39600000000000002</v>
@@ -815,10 +820,10 @@
         <v>74.8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>0.39</v>
@@ -866,7 +871,7 @@
         <v>77.900000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
@@ -884,12 +889,12 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>0.8</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1">
         <v>0.17299999999999999</v>
@@ -937,10 +942,10 @@
         <v>206.9</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1">
         <v>0.38500000000000001</v>
@@ -988,10 +993,10 @@
         <v>78.3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1">
         <v>0.379</v>
@@ -1041,6 +1046,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="C1:Q1"/>
@@ -1049,26 +1055,25 @@
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="A4:A6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45424152-5783-4348-9EC1-293F6F795591}">
-  <dimension ref="A1:Q14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C1" s="5" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -1085,39 +1090,39 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C2" s="5">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C2" s="4">
         <v>-60</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4">
         <v>-55</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
         <v>-50</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4">
         <v>-45</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4">
         <v>-40</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1165,12 +1170,796 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>0.2</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-53.1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>126.1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="G4" s="2">
+        <v>-51.9</v>
+      </c>
+      <c r="H4" s="2">
+        <v>81.8</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="J4" s="2">
+        <v>-51.1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>70.8</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="M4" s="2">
+        <v>-50.1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>88.1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="P4" s="2">
+        <v>-49.2</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>143.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-53.9</v>
+      </c>
+      <c r="E5" s="2">
+        <v>145.6</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-52.4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>106.3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="J5" s="2">
+        <v>-51.6</v>
+      </c>
+      <c r="K5" s="2">
+        <v>98.6</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="M5" s="2">
+        <v>-50.3</v>
+      </c>
+      <c r="N5" s="2">
+        <v>113.7</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="P5" s="2">
+        <v>-49.3</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>167.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E6" s="2">
+        <v>103.6</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-49.7</v>
+      </c>
+      <c r="H6" s="2">
+        <v>30.4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="J6" s="2">
+        <v>-49.6</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="M6" s="2">
+        <v>-49.4</v>
+      </c>
+      <c r="N6" s="2">
+        <v>21.3</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="P6" s="2">
+        <v>-49.2</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>86.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E7" s="2">
+        <v>103.4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-49.7</v>
+      </c>
+      <c r="H7" s="2">
+        <v>30.4</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="J7" s="2">
+        <v>-49.6</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="M7" s="2">
+        <v>-49.4</v>
+      </c>
+      <c r="N7" s="2">
+        <v>21.3</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="P7" s="2">
+        <v>-49.2</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-53.1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>126.2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-52.2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>83.4</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="J9" s="2">
+        <v>-51</v>
+      </c>
+      <c r="K9" s="2">
+        <v>66.5</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="M9" s="2">
+        <v>-50.1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>86.2</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="P9" s="2">
+        <v>-49.1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>139.69999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-55.3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>182.4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-54</v>
+      </c>
+      <c r="H10" s="2">
+        <v>157.30000000000001</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="J10" s="2">
+        <v>-52.2</v>
+      </c>
+      <c r="K10" s="2">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="M10" s="2">
+        <v>-50.8</v>
+      </c>
+      <c r="N10" s="2">
+        <v>165.2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="P10" s="2">
+        <v>-49.4</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>213.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.995</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-49.7</v>
+      </c>
+      <c r="E11" s="2">
+        <v>107.6</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-49.6</v>
+      </c>
+      <c r="H11" s="2">
+        <v>30.7</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J11" s="2">
+        <v>-49.4</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="M11" s="2">
+        <v>-49.3</v>
+      </c>
+      <c r="N11" s="2">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P11" s="2">
+        <v>-49.2</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-49.7</v>
+      </c>
+      <c r="E12" s="2">
+        <v>107.8</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-49.6</v>
+      </c>
+      <c r="H12" s="2">
+        <v>30.5</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J12" s="2">
+        <v>-49.4</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="M12" s="2">
+        <v>-49.3</v>
+      </c>
+      <c r="N12" s="2">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="P12" s="2">
+        <v>-49.2</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-53</v>
+      </c>
+      <c r="E14" s="2">
+        <v>128.5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-51.9</v>
+      </c>
+      <c r="H14" s="2">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="J14" s="2">
+        <v>-51</v>
+      </c>
+      <c r="K14" s="2">
+        <v>65.8</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="M14" s="2">
+        <v>-50.1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>86.5</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="P14" s="2">
+        <v>-49.2</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>142.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.747</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-57.3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>258.39999999999998</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.748</v>
+      </c>
+      <c r="G15" s="2">
+        <v>-55.2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>235.9</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="J15" s="2">
+        <v>-53.5</v>
+      </c>
+      <c r="K15" s="2">
+        <v>240.7</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.751</v>
+      </c>
+      <c r="M15" s="2">
+        <v>-51.7</v>
+      </c>
+      <c r="N15" s="2">
+        <v>264.7</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.749</v>
+      </c>
+      <c r="P15" s="2">
+        <v>-49.8</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-49.4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>112.4</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G16" s="2">
+        <v>-49.4</v>
+      </c>
+      <c r="H16" s="2">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J16" s="2">
+        <v>-49.3</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="M16" s="2">
+        <v>-49.2</v>
+      </c>
+      <c r="N16" s="2">
+        <v>18.2</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="P16" s="2">
+        <v>-49.2</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-49.4</v>
+      </c>
+      <c r="E17" s="2">
+        <v>112.7</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-49.3</v>
+      </c>
+      <c r="H17" s="2">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="J17" s="2">
+        <v>-49.3</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="M17" s="2">
+        <v>-49.3</v>
+      </c>
+      <c r="N17" s="2">
+        <v>18.3</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P17" s="2">
+        <v>-49.2</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="C1:Q1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C1" s="5" t="s">
         <v>0</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C2" s="4">
+        <v>-60</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4">
+        <v>-55</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
+        <v>-50</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4">
+        <v>-45</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4">
+        <v>-40</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>0.23300000000000001</v>
@@ -1218,10 +2007,10 @@
         <v>102.2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>0.40500000000000003</v>
@@ -1269,10 +2058,10 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>0.4</v>
@@ -1320,7 +2109,7 @@
         <v>75.3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
@@ -1338,12 +2127,12 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>0.5</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>0.19400000000000001</v>
@@ -1391,10 +2180,10 @@
         <v>126.1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <v>0.39600000000000002</v>
@@ -1442,10 +2231,10 @@
         <v>74.8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>0.39</v>
@@ -1493,7 +2282,7 @@
         <v>77.900000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
@@ -1511,12 +2300,12 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>0.8</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1">
         <v>0.17299999999999999</v>
@@ -1564,10 +2353,10 @@
         <v>206.9</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1">
         <v>0.38500000000000001</v>
@@ -1615,10 +2404,10 @@
         <v>78.3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1">
         <v>0.379</v>
@@ -1678,24 +2467,24 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0FAADE-714A-4E5A-B305-0314B5A2E7CF}">
-  <dimension ref="A1:Q14"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C1" s="5" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -1712,39 +2501,39 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C2" s="5">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C2" s="4">
         <v>-60</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4">
         <v>-55</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
         <v>-50</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4">
         <v>-45</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4">
         <v>-40</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1792,505 +2581,691 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>0.2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>-53.8</v>
+        <v>-53</v>
       </c>
       <c r="E4" s="2">
-        <v>123.6</v>
+        <v>122.6</v>
       </c>
       <c r="F4" s="1">
-        <v>2.3E-2</v>
+        <v>0.02</v>
       </c>
       <c r="G4" s="2">
-        <v>-51.1</v>
+        <v>-51.2</v>
       </c>
       <c r="H4" s="2">
-        <v>87</v>
+        <v>76.7</v>
       </c>
       <c r="I4" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="J4" s="2">
+        <v>-49.2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>55.3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="M4" s="2">
+        <v>-47.5</v>
+      </c>
+      <c r="N4" s="2">
+        <v>58.7</v>
+      </c>
+      <c r="O4" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P4" s="2">
+        <v>-45.7</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-53.8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>142.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-51.6</v>
+      </c>
+      <c r="H5" s="2">
+        <v>98.7</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="J5" s="2">
         <v>-49.3</v>
       </c>
-      <c r="K4" s="2">
-        <v>70</v>
-      </c>
-      <c r="L4" s="1">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="M4" s="2">
-        <v>-47.6</v>
-      </c>
-      <c r="N4" s="2">
-        <v>74</v>
-      </c>
-      <c r="O4" s="1">
+      <c r="K5" s="2">
+        <v>76.8</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>-47.3</v>
+      </c>
+      <c r="N5" s="2">
+        <v>80.3</v>
+      </c>
+      <c r="O5" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="P4" s="2">
-        <v>-45.4</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>-50.1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>101.5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="P5" s="2">
+        <v>-45.1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>109.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-49.9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>104.1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G6" s="2">
         <v>-49.6</v>
       </c>
-      <c r="H5" s="2">
-        <v>32.4</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="H6" s="2">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1">
         <v>1.2E-2</v>
-      </c>
-      <c r="J5" s="2">
-        <v>-49.2</v>
-      </c>
-      <c r="K5" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="L5" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="M5" s="2">
-        <v>-48.9</v>
-      </c>
-      <c r="N5" s="2">
-        <v>17.2</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="P5" s="2">
-        <v>-48.5</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>73.900000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D6" s="2">
-        <v>-50</v>
-      </c>
-      <c r="E6" s="2">
-        <v>102.8</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2.7E-2</v>
-      </c>
-      <c r="G6" s="2">
-        <v>-49.5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1.0999999999999999E-2</v>
       </c>
       <c r="J6" s="2">
         <v>-49.2</v>
       </c>
       <c r="K6" s="2">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="L6" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M6" s="2">
+        <v>-48.8</v>
+      </c>
+      <c r="N6" s="2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="P6" s="2">
+        <v>-48.5</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-49.9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>104</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-49.6</v>
+      </c>
+      <c r="H7" s="2">
+        <v>31.8</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>-49.2</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M7" s="2">
+        <v>-48.9</v>
+      </c>
+      <c r="N7" s="2">
+        <v>16.7</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="P7" s="2">
+        <v>-48.5</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>74.599999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-52.9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>121.7</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-51.1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>79</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>-49.4</v>
+      </c>
+      <c r="K9" s="2">
+        <v>55.2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M9" s="2">
+        <v>-47.4</v>
+      </c>
+      <c r="N9" s="2">
+        <v>60.8</v>
+      </c>
+      <c r="O9" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P9" s="2">
+        <v>-45.9</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-55</v>
+      </c>
+      <c r="E10" s="2">
+        <v>178.9</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-52.3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>146.19999999999999</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>-49.7</v>
+      </c>
+      <c r="K10" s="2">
+        <v>125.6</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="M10" s="2">
+        <v>-46.7</v>
+      </c>
+      <c r="N10" s="2">
+        <v>132.6</v>
+      </c>
+      <c r="O10" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="P10" s="2">
+        <v>-44.2</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>154.69999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-49.7</v>
+      </c>
+      <c r="E11" s="2">
+        <v>108.2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-49.4</v>
+      </c>
+      <c r="H11" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>-49.2</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="L11" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M11" s="2">
         <v>-48.9</v>
       </c>
-      <c r="N6" s="2">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="O6" s="1">
+      <c r="N11" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="O11" s="1">
         <v>1E-3</v>
       </c>
-      <c r="P6" s="2">
-        <v>-48.6</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>74.900000000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>-54.3</v>
-      </c>
-      <c r="E8" s="2">
-        <v>154.5</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1.6E-2</v>
-      </c>
-      <c r="G8" s="2">
-        <v>-51.9</v>
-      </c>
-      <c r="H8" s="2">
-        <v>118.4</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1.4E-2</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="P11" s="2">
+        <v>-48.7</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>76.599999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-49.6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>108.3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G12" s="2">
         <v>-49.4</v>
       </c>
-      <c r="K8" s="2">
-        <v>99</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="M8" s="2">
-        <v>-47.1</v>
-      </c>
-      <c r="N8" s="2">
-        <v>97.7</v>
-      </c>
-      <c r="O8" s="1">
+      <c r="H12" s="2">
+        <v>32</v>
+      </c>
+      <c r="I12" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="P8" s="2">
-        <v>-44.7</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>130.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D9" s="2">
-        <v>-49.8</v>
-      </c>
-      <c r="E9" s="2">
-        <v>105.3</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2.3E-2</v>
-      </c>
-      <c r="G9" s="2">
-        <v>-49.5</v>
-      </c>
-      <c r="H9" s="2">
-        <v>32.1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="J12" s="2">
         <v>-49.2</v>
       </c>
-      <c r="K9" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="L9" s="1">
+      <c r="K12" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="L12" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M9" s="2">
-        <v>-48.9</v>
-      </c>
-      <c r="N9" s="2">
+      <c r="M12" s="2">
+        <v>-49</v>
+      </c>
+      <c r="N12" s="2">
         <v>16.600000000000001</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O12" s="1">
         <v>1E-3</v>
       </c>
-      <c r="P9" s="2">
-        <v>-48.6</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>75.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D10" s="2">
-        <v>-49.7</v>
-      </c>
-      <c r="E10" s="2">
-        <v>108</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="G10" s="2">
-        <v>-49.4</v>
-      </c>
-      <c r="H10" s="2">
-        <v>31.9</v>
-      </c>
-      <c r="I10" s="1">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="J10" s="2">
-        <v>-49.2</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="L10" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="M10" s="2">
-        <v>-49</v>
-      </c>
-      <c r="N10" s="2">
-        <v>16.7</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="P10" s="2">
+      <c r="P12" s="2">
         <v>-48.8</v>
       </c>
-      <c r="Q10" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="Q12" s="2">
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
         <v>0.8</v>
       </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>-56</v>
-      </c>
-      <c r="E12" s="2">
-        <v>211.4</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="2">
-        <v>-52.6</v>
-      </c>
-      <c r="H12" s="2">
-        <v>178.6</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1.6E-2</v>
-      </c>
-      <c r="J12" s="2">
-        <v>-49.3</v>
-      </c>
-      <c r="K12" s="2">
-        <v>170.5</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1.4E-2</v>
-      </c>
-      <c r="M12" s="2">
-        <v>-46.3</v>
-      </c>
-      <c r="N12" s="2">
-        <v>179.1</v>
-      </c>
-      <c r="O12" s="1">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="P12" s="2">
-        <v>-43.1</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>211.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>-49.6</v>
-      </c>
-      <c r="E13" s="2">
-        <v>109.7</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2.3E-2</v>
-      </c>
-      <c r="G13" s="2">
-        <v>-49.4</v>
-      </c>
-      <c r="H13" s="2">
-        <v>32.6</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="J13" s="2">
-        <v>-49.2</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="L13" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="M13" s="2">
-        <v>-49</v>
-      </c>
-      <c r="N13" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="O13" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="P13" s="2">
-        <v>-48.8</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>78.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>4.1000000000000002E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D14" s="2">
-        <v>-49.4</v>
+        <v>-52.9</v>
       </c>
       <c r="E14" s="2">
-        <v>112.9</v>
+        <v>122.1</v>
       </c>
       <c r="F14" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="G14" s="2">
-        <v>-49.3</v>
+        <v>-51.1</v>
       </c>
       <c r="H14" s="2">
-        <v>32.799999999999997</v>
+        <v>77</v>
       </c>
       <c r="I14" s="1">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="J14" s="2">
         <v>-49.2</v>
       </c>
       <c r="K14" s="2">
+        <v>55.7</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M14" s="2">
+        <v>-47.6</v>
+      </c>
+      <c r="N14" s="2">
+        <v>62.4</v>
+      </c>
+      <c r="O14" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P14" s="2">
+        <v>-45.8</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>90.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-57.1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>250.2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="G15" s="2">
+        <v>-53.5</v>
+      </c>
+      <c r="H15" s="2">
+        <v>229.8</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>-49.7</v>
+      </c>
+      <c r="K15" s="2">
+        <v>216</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>-46.2</v>
+      </c>
+      <c r="N15" s="2">
+        <v>227.4</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="P15" s="2">
+        <v>-42.4</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>233.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-49.4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>112.6</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>-49.3</v>
+      </c>
+      <c r="H16" s="2">
+        <v>32.9</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J16" s="2">
+        <v>-49.2</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M16" s="2">
+        <v>-49.1</v>
+      </c>
+      <c r="N16" s="2">
+        <v>16.7</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="P16" s="2">
+        <v>-48.9</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-49.4</v>
+      </c>
+      <c r="E17" s="2">
+        <v>113</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-49.3</v>
+      </c>
+      <c r="H17" s="2">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="I17" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J17" s="2">
+        <v>-49.2</v>
+      </c>
+      <c r="K17" s="2">
         <v>0.8</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L17" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M17" s="2">
         <v>-49.1</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N17" s="2">
         <v>17.2</v>
       </c>
-      <c r="O14" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="P14" s="2">
+      <c r="O17" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="P17" s="2">
         <v>-49.1</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q17" s="2">
         <v>82.1</v>
       </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A12:A14"/>
     <mergeCell ref="C1:Q1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A14:A17"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F56842-8A04-43CF-81B1-6661C22C4469}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
@@ -2309,39 +3284,39 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C2" s="5">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C2" s="4">
         <v>0.2</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4">
         <v>0.22</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
         <v>0.25</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4">
         <v>0.32</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -2389,12 +3364,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>0.2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>0.56899999999999995</v>
@@ -2442,10 +3417,10 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>0.56699999999999995</v>
@@ -2493,10 +3468,10 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>0.55200000000000005</v>
@@ -2544,8 +3519,8 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2562,12 +3537,12 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>0.5</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>0.54100000000000004</v>
@@ -2615,10 +3590,10 @@
         <v>5.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <v>0.53200000000000003</v>
@@ -2666,10 +3641,10 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>0.502</v>
@@ -2717,8 +3692,8 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2735,12 +3710,12 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>0.8</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1">
         <v>0.53</v>
@@ -2788,10 +3763,10 @@
         <v>7.6E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1">
         <v>0.52400000000000002</v>
@@ -2839,10 +3814,10 @@
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1">
         <v>0.48399999999999999</v>
@@ -2902,22 +3877,22 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76940B72-78A9-4598-9C52-515EB88AF4C8}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
@@ -2936,39 +3911,39 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C2" s="5">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C2" s="4">
         <v>0.2</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4">
         <v>0.22</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
         <v>0.25</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4">
         <v>0.32</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -3016,12 +3991,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>0.2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>8.9999999999999993E-3</v>
@@ -3069,10 +4044,10 @@
         <v>4.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>8.0000000000000002E-3</v>
@@ -3120,10 +4095,10 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>8.0000000000000002E-3</v>
@@ -3171,8 +4146,8 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3189,12 +4164,12 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>0.5</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>0.02</v>
@@ -3242,10 +4217,10 @@
         <v>5.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <v>1.6E-2</v>
@@ -3293,10 +4268,10 @@
         <v>5.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>1.4E-2</v>
@@ -3344,8 +4319,8 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -3362,12 +4337,12 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>0.8</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1">
         <v>3.2000000000000001E-2</v>
@@ -3415,10 +4390,10 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1">
         <v>2.5999999999999999E-2</v>
@@ -3466,10 +4441,10 @@
         <v>7.6E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1">
         <v>0.02</v>
@@ -3529,7 +4504,7 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>